--- a/data/pickle.xlsx
+++ b/data/pickle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phbro\Desktop\DOCUMENTS\ActuRank\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5B12DE-22DE-431A-B1DB-412AFF4372A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6446F92-CFCA-4948-9C0C-8CD4D286945E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="0" windowWidth="21924" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="60">
   <si>
     <t>players</t>
   </si>
@@ -207,6 +207,15 @@
   </si>
   <si>
     <t>21/08/2024</t>
+  </si>
+  <si>
+    <t>type (1:chq pt compte 2:have service for pt)</t>
+  </si>
+  <si>
+    <t>26/08/2024</t>
+  </si>
+  <si>
+    <t>28/08/2024</t>
   </si>
 </sst>
 </file>
@@ -600,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O935"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,7 +667,9 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
@@ -692,7 +703,9 @@
       <c r="I3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
       <c r="K3" s="9" t="str">
         <f>IF(OR(OR(AND(OR(A3=B3,A3=C3,A3=D3,B3=C3,B3=D3,C3=D3),OR(A3&lt;&gt;"",D3&lt;&gt;"")),H3&gt;MAX(F3:G3),B3=C3),OR(AND(ISBLANK(A3)=FALSE,ISNA(VLOOKUP(A3,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B3,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C3,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D3)=FALSE,ISNA(VLOOKUP(D3,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A3:D3)=1,COUNTBLANK(A3:D3)=3))),"ERREUR","")</f>
         <v/>
@@ -718,7 +731,7 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E11" si="0">IF(F4&gt;G4,1,0)</f>
+        <f t="shared" ref="E4:E35" si="0">IF(F4&gt;G4,1,0)</f>
         <v>1</v>
       </c>
       <c r="F4" s="5">
@@ -733,9 +746,11 @@
       <c r="I4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
       <c r="K4" s="9" t="str">
-        <f t="shared" ref="K4:K11" si="1">IF(OR(OR(AND(OR(A4=B4,A4=C4,A4=D4,B4=C4,B4=D4,C4=D4),OR(A4&lt;&gt;"",D4&lt;&gt;"")),H4&gt;MAX(F4:G4),B4=C4),OR(AND(ISBLANK(A4)=FALSE,ISNA(VLOOKUP(A4,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B4,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C4,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D4)=FALSE,ISNA(VLOOKUP(D4,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A4:D4)=1,COUNTBLANK(A4:D4)=3))),"ERREUR","")</f>
+        <f t="shared" ref="K4:K35" si="1">IF(OR(OR(AND(OR(A4=B4,A4=C4,A4=D4,B4=C4,B4=D4,C4=D4),OR(A4&lt;&gt;"",D4&lt;&gt;"")),H4&gt;MAX(F4:G4),B4=C4),OR(AND(ISBLANK(A4)=FALSE,ISNA(VLOOKUP(A4,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B4,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C4,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D4)=FALSE,ISNA(VLOOKUP(D4,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A4:D4)=1,COUNTBLANK(A4:D4)=3))),"ERREUR","")</f>
         <v/>
       </c>
       <c r="L4" s="1"/>
@@ -774,7 +789,9 @@
       <c r="I5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
       <c r="K5" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -815,7 +832,9 @@
       <c r="I6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
       <c r="K6" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -856,7 +875,9 @@
       <c r="I7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
       <c r="K7" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -897,7 +918,9 @@
       <c r="I8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
       <c r="K8" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -938,7 +961,9 @@
       <c r="I9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
       <c r="K9" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -979,7 +1004,9 @@
       <c r="I10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
       <c r="K10" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1020,7 +1047,9 @@
       <c r="I11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
       <c r="K11" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1038,16 +1067,36 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="9"/>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>11</v>
+      </c>
+      <c r="G12" s="5">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
         <v>29</v>
@@ -1061,16 +1110,36 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="9"/>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>11</v>
+      </c>
+      <c r="G13" s="5">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1">
+        <v>11</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2</v>
+      </c>
+      <c r="K13" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
         <v>31</v>
@@ -1084,16 +1153,36 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="9"/>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
         <v>33</v>
@@ -1107,16 +1196,36 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="9"/>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>11</v>
+      </c>
+      <c r="G15" s="5">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
         <v>35</v>
@@ -1130,16 +1239,36 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="9"/>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>11</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+      <c r="K16" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
         <v>37</v>
@@ -1153,16 +1282,36 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="9"/>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>11</v>
+      </c>
+      <c r="G17" s="5">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+      <c r="K17" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
         <v>39</v>
@@ -1176,16 +1325,36 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="9"/>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+      <c r="K18" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
         <v>41</v>
@@ -1199,16 +1368,36 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="9"/>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1">
+        <v>11</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+      <c r="K19" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
         <v>43</v>
@@ -1222,16 +1411,36 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="9"/>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>11</v>
+      </c>
+      <c r="G20" s="5">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1">
+        <v>11</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+      <c r="K20" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
         <v>46</v>
@@ -1245,16 +1454,36 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="9"/>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>15</v>
+      </c>
+      <c r="G21" s="5">
+        <v>13</v>
+      </c>
+      <c r="H21" s="1">
+        <v>11</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
         <v>48</v>
@@ -1268,16 +1497,36 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="9"/>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>11</v>
+      </c>
+      <c r="G22" s="5">
+        <v>6</v>
+      </c>
+      <c r="H22" s="1">
+        <v>11</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1" t="s">
         <v>50</v>
@@ -1291,16 +1540,36 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
+      <c r="B23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="9"/>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>13</v>
+      </c>
+      <c r="G23" s="5">
+        <v>11</v>
+      </c>
+      <c r="H23" s="1">
+        <v>11</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
         <v>52</v>
@@ -1314,16 +1583,36 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
+      <c r="B24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="9"/>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
+        <v>11</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>11</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
         <v>54</v>
@@ -1337,16 +1626,36 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="9"/>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <v>11</v>
+      </c>
+      <c r="G25" s="5">
+        <v>6</v>
+      </c>
+      <c r="H25" s="1">
+        <v>11</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -1354,16 +1663,36 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="9"/>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <v>11</v>
+      </c>
+      <c r="G26" s="5">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>11</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -1371,16 +1700,36 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="9"/>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
+        <v>11</v>
+      </c>
+      <c r="G27" s="5">
+        <v>9</v>
+      </c>
+      <c r="H27" s="1">
+        <v>11</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -1388,16 +1737,36 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
+      <c r="B28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="9"/>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
+        <v>11</v>
+      </c>
+      <c r="G28" s="5">
+        <v>9</v>
+      </c>
+      <c r="H28" s="1">
+        <v>11</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -1405,16 +1774,36 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
+      <c r="B29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D29" s="7"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="9"/>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>11</v>
+      </c>
+      <c r="G29" s="5">
+        <v>9</v>
+      </c>
+      <c r="H29" s="1">
+        <v>11</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -1422,16 +1811,36 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="9"/>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
+        <v>11</v>
+      </c>
+      <c r="G30" s="5">
+        <v>7</v>
+      </c>
+      <c r="H30" s="1">
+        <v>11</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -1439,16 +1848,36 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
+      <c r="B31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="9"/>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>11</v>
+      </c>
+      <c r="G31" s="5">
+        <v>5</v>
+      </c>
+      <c r="H31" s="1">
+        <v>11</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -1456,16 +1885,36 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D32" s="7"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="9"/>
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <v>11</v>
+      </c>
+      <c r="G32" s="5">
+        <v>9</v>
+      </c>
+      <c r="H32" s="1">
+        <v>11</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -1473,16 +1922,36 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
+      <c r="B33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D33" s="7"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="9"/>
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>11</v>
+      </c>
+      <c r="G33" s="5">
+        <v>6</v>
+      </c>
+      <c r="H33" s="1">
+        <v>11</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -1490,16 +1959,36 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
+      <c r="B34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="9"/>
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
+        <v>11</v>
+      </c>
+      <c r="G34" s="5">
+        <v>5</v>
+      </c>
+      <c r="H34" s="1">
+        <v>11</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -1507,16 +1996,36 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
+      <c r="B35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D35" s="7"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="9"/>
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5">
+        <v>10</v>
+      </c>
+      <c r="H35" s="1">
+        <v>11</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>

--- a/data/pickle.xlsx
+++ b/data/pickle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phbro\Desktop\DOCUMENTS\ActuRank\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6446F92-CFCA-4948-9C0C-8CD4D286945E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA57BB2F-535F-47F1-88B2-37E2B5846967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="62">
   <si>
     <t>players</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>28/08/2024</t>
+  </si>
+  <si>
+    <t>17/09/2024</t>
+  </si>
+  <si>
+    <t>25/09/2024</t>
   </si>
 </sst>
 </file>
@@ -609,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,7 +737,7 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E35" si="0">IF(F4&gt;G4,1,0)</f>
+        <f t="shared" ref="E4:E48" si="0">IF(F4&gt;G4,1,0)</f>
         <v>1</v>
       </c>
       <c r="F4" s="5">
@@ -750,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="9" t="str">
-        <f t="shared" ref="K4:K35" si="1">IF(OR(OR(AND(OR(A4=B4,A4=C4,A4=D4,B4=C4,B4=D4,C4=D4),OR(A4&lt;&gt;"",D4&lt;&gt;"")),H4&gt;MAX(F4:G4),B4=C4),OR(AND(ISBLANK(A4)=FALSE,ISNA(VLOOKUP(A4,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B4,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C4,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D4)=FALSE,ISNA(VLOOKUP(D4,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A4:D4)=1,COUNTBLANK(A4:D4)=3))),"ERREUR","")</f>
+        <f t="shared" ref="K4:K48" si="1">IF(OR(OR(AND(OR(A4=B4,A4=C4,A4=D4,B4=C4,B4=D4,C4=D4),OR(A4&lt;&gt;"",D4&lt;&gt;"")),H4&gt;MAX(F4:G4),B4=C4),OR(AND(ISBLANK(A4)=FALSE,ISNA(VLOOKUP(A4,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B4,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C4,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D4)=FALSE,ISNA(VLOOKUP(D4,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A4:D4)=1,COUNTBLANK(A4:D4)=3))),"ERREUR","")</f>
         <v/>
       </c>
       <c r="L4" s="1"/>
@@ -1478,7 +1484,7 @@
         <v>59</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1521,7 +1527,7 @@
         <v>59</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1564,7 +1570,7 @@
         <v>59</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1607,7 +1613,7 @@
         <v>59</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1650,7 +1656,7 @@
         <v>59</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1687,7 +1693,7 @@
         <v>59</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1724,7 +1730,7 @@
         <v>59</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1761,7 +1767,7 @@
         <v>59</v>
       </c>
       <c r="J28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1798,7 +1804,7 @@
         <v>59</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1835,7 +1841,7 @@
         <v>59</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1872,7 +1878,7 @@
         <v>59</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1909,7 +1915,7 @@
         <v>59</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1946,7 +1952,7 @@
         <v>59</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1983,7 +1989,7 @@
         <v>59</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2020,7 +2026,7 @@
         <v>59</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2033,16 +2039,36 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
+      <c r="B36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D36" s="7"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="9"/>
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <v>11</v>
+      </c>
+      <c r="G36" s="5">
+        <v>9</v>
+      </c>
+      <c r="H36" s="1">
+        <v>11</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2</v>
+      </c>
+      <c r="K36" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -2050,16 +2076,36 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
+      <c r="B37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D37" s="7"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="9"/>
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5">
+        <v>10</v>
+      </c>
+      <c r="H37" s="1">
+        <v>11</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J37" s="1">
+        <v>2</v>
+      </c>
+      <c r="K37" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -2067,16 +2113,36 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
+      <c r="B38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D38" s="7"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="9"/>
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
+        <v>11</v>
+      </c>
+      <c r="G38" s="5">
+        <v>7</v>
+      </c>
+      <c r="H38" s="1">
+        <v>11</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2</v>
+      </c>
+      <c r="K38" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -2084,16 +2150,36 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
+      <c r="B39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D39" s="7"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="9"/>
+      <c r="E39" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F39" s="5">
+        <v>12</v>
+      </c>
+      <c r="G39" s="5">
+        <v>10</v>
+      </c>
+      <c r="H39" s="1">
+        <v>11</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2</v>
+      </c>
+      <c r="K39" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -2101,16 +2187,36 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
+      <c r="B40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D40" s="7"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="9"/>
+      <c r="E40" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
+        <v>12</v>
+      </c>
+      <c r="G40" s="5">
+        <v>10</v>
+      </c>
+      <c r="H40" s="1">
+        <v>11</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J40" s="1">
+        <v>2</v>
+      </c>
+      <c r="K40" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -2118,16 +2224,36 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
+      <c r="B41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D41" s="7"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="9"/>
+      <c r="E41" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F41" s="5">
+        <v>11</v>
+      </c>
+      <c r="G41" s="5">
+        <v>5</v>
+      </c>
+      <c r="H41" s="1">
+        <v>11</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J41" s="1">
+        <v>2</v>
+      </c>
+      <c r="K41" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -2135,16 +2261,36 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
+      <c r="B42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D42" s="7"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="9"/>
+      <c r="E42" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F42" s="5">
+        <v>11</v>
+      </c>
+      <c r="G42" s="5">
+        <v>9</v>
+      </c>
+      <c r="H42" s="1">
+        <v>11</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J42" s="1">
+        <v>2</v>
+      </c>
+      <c r="K42" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -2152,16 +2298,36 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
+      <c r="B43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D43" s="7"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="9"/>
+      <c r="E43" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
+        <v>11</v>
+      </c>
+      <c r="G43" s="5">
+        <v>9</v>
+      </c>
+      <c r="H43" s="1">
+        <v>11</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J43" s="1">
+        <v>2</v>
+      </c>
+      <c r="K43" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -2169,16 +2335,36 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
+      <c r="B44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D44" s="7"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="9"/>
+      <c r="E44" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F44" s="5">
+        <v>11</v>
+      </c>
+      <c r="G44" s="5">
+        <v>9</v>
+      </c>
+      <c r="H44" s="1">
+        <v>11</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J44" s="1">
+        <v>2</v>
+      </c>
+      <c r="K44" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -2186,16 +2372,36 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
+      <c r="B45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="9"/>
+      <c r="E45" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F45" s="5">
+        <v>13</v>
+      </c>
+      <c r="G45" s="5">
+        <v>11</v>
+      </c>
+      <c r="H45" s="1">
+        <v>11</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J45" s="1">
+        <v>2</v>
+      </c>
+      <c r="K45" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -2203,16 +2409,36 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
+      <c r="B46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D46" s="7"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="9"/>
+      <c r="E46" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F46" s="5">
+        <v>12</v>
+      </c>
+      <c r="G46" s="5">
+        <v>10</v>
+      </c>
+      <c r="H46" s="1">
+        <v>11</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J46" s="1">
+        <v>2</v>
+      </c>
+      <c r="K46" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -2220,16 +2446,36 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="7"/>
+      <c r="B47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D47" s="7"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="9"/>
+      <c r="E47" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F47" s="5">
+        <v>11</v>
+      </c>
+      <c r="G47" s="5">
+        <v>7</v>
+      </c>
+      <c r="H47" s="1">
+        <v>11</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J47" s="1">
+        <v>2</v>
+      </c>
+      <c r="K47" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -2237,16 +2483,36 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="7"/>
+      <c r="B48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D48" s="7"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="9"/>
+      <c r="E48" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F48" s="5">
+        <v>11</v>
+      </c>
+      <c r="G48" s="5">
+        <v>8</v>
+      </c>
+      <c r="H48" s="1">
+        <v>11</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J48" s="1">
+        <v>2</v>
+      </c>
+      <c r="K48" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>

--- a/data/pickle.xlsx
+++ b/data/pickle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phbro\Desktop\DOCUMENTS\ActuRank\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA57BB2F-535F-47F1-88B2-37E2B5846967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8894BE30-1939-43D2-81E5-E32189CB278A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1176" yWindow="0" windowWidth="10932" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="67">
   <si>
     <t>players</t>
   </si>
@@ -222,6 +222,21 @@
   </si>
   <si>
     <t>25/09/2024</t>
+  </si>
+  <si>
+    <t>29/09/2024</t>
+  </si>
+  <si>
+    <t>3/10/2024</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Frédéric</t>
+  </si>
+  <si>
+    <t>6/10/2024</t>
   </si>
 </sst>
 </file>
@@ -615,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,7 +752,7 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E48" si="0">IF(F4&gt;G4,1,0)</f>
+        <f t="shared" ref="E4:E74" si="0">IF(F4&gt;G4,1,0)</f>
         <v>1</v>
       </c>
       <c r="F4" s="5">
@@ -756,7 +771,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="9" t="str">
-        <f t="shared" ref="K4:K48" si="1">IF(OR(OR(AND(OR(A4=B4,A4=C4,A4=D4,B4=C4,B4=D4,C4=D4),OR(A4&lt;&gt;"",D4&lt;&gt;"")),H4&gt;MAX(F4:G4),B4=C4),OR(AND(ISBLANK(A4)=FALSE,ISNA(VLOOKUP(A4,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B4,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C4,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D4)=FALSE,ISNA(VLOOKUP(D4,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A4:D4)=1,COUNTBLANK(A4:D4)=3))),"ERREUR","")</f>
+        <f t="shared" ref="K4:K67" si="1">IF(OR(OR(AND(OR(A4=B4,A4=C4,A4=D4,B4=C4,B4=D4,C4=D4),OR(A4&lt;&gt;"",D4&lt;&gt;"")),H4&gt;MAX(F4:G4),B4=C4),OR(AND(ISBLANK(A4)=FALSE,ISNA(VLOOKUP(A4,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B4,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C4,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D4)=FALSE,ISNA(VLOOKUP(D4,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A4:D4)=1,COUNTBLANK(A4:D4)=3))),"ERREUR","")</f>
         <v/>
       </c>
       <c r="L4" s="1"/>
@@ -1659,13 +1674,19 @@
         <v>2</v>
       </c>
       <c r="K25" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(OR(AND(OR(A25=B25,A25=C25,A25=D25,B25=C25,B25=D25,C25=D25),OR(A25&lt;&gt;"",D25&lt;&gt;"")),H25&gt;MAX(F25:G25),B25=C25),OR(AND(ISBLANK(A25)=FALSE,ISNA(VLOOKUP(A25,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B25,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C25,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D25)=FALSE,ISNA(VLOOKUP(D25,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A25:D25)=1,COUNTBLANK(A25:D25)=3))),"ERREUR","")</f>
         <v/>
       </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="M25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
@@ -2520,16 +2541,36 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
+      <c r="B49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D49" s="7"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="9"/>
+      <c r="E49" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F49" s="5">
+        <v>11</v>
+      </c>
+      <c r="G49" s="5">
+        <v>9</v>
+      </c>
+      <c r="H49" s="1">
+        <v>11</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J49" s="1">
+        <v>2</v>
+      </c>
+      <c r="K49" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -2537,16 +2578,36 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
+      <c r="B50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D50" s="7"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="9"/>
+      <c r="E50" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F50" s="5">
+        <v>13</v>
+      </c>
+      <c r="G50" s="5">
+        <v>11</v>
+      </c>
+      <c r="H50" s="1">
+        <v>11</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J50" s="1">
+        <v>2</v>
+      </c>
+      <c r="K50" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -2554,16 +2615,36 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
+      <c r="B51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D51" s="7"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="9"/>
+      <c r="E51" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
+        <v>12</v>
+      </c>
+      <c r="G51" s="5">
+        <v>10</v>
+      </c>
+      <c r="H51" s="1">
+        <v>11</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J51" s="1">
+        <v>2</v>
+      </c>
+      <c r="K51" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -2571,16 +2652,36 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
+      <c r="B52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D52" s="7"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="9"/>
+      <c r="E52" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F52" s="5">
+        <v>11</v>
+      </c>
+      <c r="G52" s="5">
+        <v>8</v>
+      </c>
+      <c r="H52" s="1">
+        <v>11</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J52" s="1">
+        <v>2</v>
+      </c>
+      <c r="K52" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -2588,16 +2689,36 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="7"/>
+      <c r="B53" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D53" s="7"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="9"/>
+      <c r="E53" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F53" s="5">
+        <v>11</v>
+      </c>
+      <c r="G53" s="5">
+        <v>5</v>
+      </c>
+      <c r="H53" s="1">
+        <v>11</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J53" s="1">
+        <v>2</v>
+      </c>
+      <c r="K53" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -2605,220 +2726,528 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="7"/>
+      <c r="B54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D54" s="7"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="9"/>
+      <c r="E54" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F54" s="5">
+        <v>11</v>
+      </c>
+      <c r="G54" s="5">
+        <v>5</v>
+      </c>
+      <c r="H54" s="1">
+        <v>11</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J54" s="1">
+        <v>2</v>
+      </c>
+      <c r="K54" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="9"/>
+      <c r="A55" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F55" s="5">
+        <v>11</v>
+      </c>
+      <c r="G55" s="5">
+        <v>2</v>
+      </c>
+      <c r="H55" s="1">
+        <v>11</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J55" s="1">
+        <v>2</v>
+      </c>
+      <c r="K55" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="9"/>
+      <c r="A56" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F56" s="5">
+        <v>11</v>
+      </c>
+      <c r="G56" s="5">
+        <v>5</v>
+      </c>
+      <c r="H56" s="1">
+        <v>11</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J56" s="1">
+        <v>2</v>
+      </c>
+      <c r="K56" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="9"/>
+      <c r="A57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F57" s="5">
+        <v>11</v>
+      </c>
+      <c r="G57" s="5">
+        <v>7</v>
+      </c>
+      <c r="H57" s="1">
+        <v>11</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J57" s="1">
+        <v>2</v>
+      </c>
+      <c r="K57" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="9"/>
+      <c r="A58" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F58" s="5">
+        <v>11</v>
+      </c>
+      <c r="G58" s="5">
+        <v>4</v>
+      </c>
+      <c r="H58" s="1">
+        <v>11</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J58" s="1">
+        <v>2</v>
+      </c>
+      <c r="K58" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="9"/>
+      <c r="A59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F59" s="5">
+        <v>11</v>
+      </c>
+      <c r="G59" s="5">
+        <v>8</v>
+      </c>
+      <c r="H59" s="1">
+        <v>11</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J59" s="1">
+        <v>2</v>
+      </c>
+      <c r="K59" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="9"/>
+      <c r="A60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F60" s="5">
+        <v>11</v>
+      </c>
+      <c r="G60" s="5">
+        <v>6</v>
+      </c>
+      <c r="H60" s="1">
+        <v>11</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J60" s="1">
+        <v>2</v>
+      </c>
+      <c r="K60" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="9"/>
+      <c r="A61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F61" s="5">
+        <v>12</v>
+      </c>
+      <c r="G61" s="5">
+        <v>10</v>
+      </c>
+      <c r="H61" s="1">
+        <v>11</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J61" s="1">
+        <v>2</v>
+      </c>
+      <c r="K61" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="9"/>
+      <c r="A62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F62" s="5">
+        <v>11</v>
+      </c>
+      <c r="G62" s="5">
+        <v>8</v>
+      </c>
+      <c r="H62" s="1">
+        <v>11</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J62" s="1">
+        <v>2</v>
+      </c>
+      <c r="K62" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="9"/>
+      <c r="A63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F63" s="5">
+        <v>11</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>11</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J63" s="1">
+        <v>2</v>
+      </c>
+      <c r="K63" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="9"/>
+      <c r="A64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F64" s="5">
+        <v>11</v>
+      </c>
+      <c r="G64" s="5">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1">
+        <v>11</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J64" s="1">
+        <v>2</v>
+      </c>
+      <c r="K64" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="9"/>
+      <c r="A65" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F65" s="5">
+        <v>11</v>
+      </c>
+      <c r="G65" s="5">
+        <v>9</v>
+      </c>
+      <c r="H65" s="1">
+        <v>11</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J65" s="1">
+        <v>2</v>
+      </c>
+      <c r="K65" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="9"/>
+      <c r="A66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F66" s="5">
+        <v>11</v>
+      </c>
+      <c r="G66" s="5">
+        <v>7</v>
+      </c>
+      <c r="H66" s="1">
+        <v>11</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J66" s="1">
+        <v>2</v>
+      </c>
+      <c r="K66" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -2826,16 +3255,36 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="7"/>
+      <c r="B67" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D67" s="7"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="9"/>
+      <c r="E67" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F67" s="5">
+        <v>5</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>5</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J67" s="1">
+        <v>2</v>
+      </c>
+      <c r="K67" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -2843,16 +3292,36 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="7"/>
+      <c r="B68" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="D68" s="7"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="9"/>
+      <c r="E68" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F68" s="5">
+        <v>5</v>
+      </c>
+      <c r="G68" s="5">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1">
+        <v>5</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J68" s="1">
+        <v>2</v>
+      </c>
+      <c r="K68" s="9" t="str">
+        <f t="shared" ref="K68:K86" si="2">IF(OR(OR(AND(OR(A68=B68,A68=C68,A68=D68,B68=C68,B68=D68,C68=D68),OR(A68&lt;&gt;"",D68&lt;&gt;"")),H68&gt;MAX(F68:G68),B68=C68),OR(AND(ISBLANK(A68)=FALSE,ISNA(VLOOKUP(A68,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B68,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C68,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D68)=FALSE,ISNA(VLOOKUP(D68,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A68:D68)=1,COUNTBLANK(A68:D68)=3))),"ERREUR","")</f>
+        <v/>
+      </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -2860,16 +3329,36 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="7"/>
+      <c r="B69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D69" s="7"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="9"/>
+      <c r="E69" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F69" s="5">
+        <v>5</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>5</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J69" s="1">
+        <v>2</v>
+      </c>
+      <c r="K69" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -2877,16 +3366,36 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="7"/>
+      <c r="B70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="D70" s="7"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="9"/>
+      <c r="E70" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F70" s="5">
+        <v>5</v>
+      </c>
+      <c r="G70" s="5">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1">
+        <v>5</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J70" s="1">
+        <v>2</v>
+      </c>
+      <c r="K70" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -2894,16 +3403,36 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="7"/>
+      <c r="B71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D71" s="7"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="9"/>
+      <c r="E71" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F71" s="5">
+        <v>5</v>
+      </c>
+      <c r="G71" s="5">
+        <v>3</v>
+      </c>
+      <c r="H71" s="1">
+        <v>5</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J71" s="1">
+        <v>2</v>
+      </c>
+      <c r="K71" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -2911,33 +3440,77 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="7"/>
+      <c r="B72" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="D72" s="7"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="9"/>
+      <c r="E72" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F72" s="5">
+        <v>5</v>
+      </c>
+      <c r="G72" s="5">
+        <v>2</v>
+      </c>
+      <c r="H72" s="1">
+        <v>5</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J72" s="1">
+        <v>2</v>
+      </c>
+      <c r="K72" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="9"/>
+      <c r="A73" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F73" s="5">
+        <v>11</v>
+      </c>
+      <c r="G73" s="5">
+        <v>8</v>
+      </c>
+      <c r="H73" s="1">
+        <v>11</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J73" s="1">
+        <v>2</v>
+      </c>
+      <c r="K73" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -2945,169 +3518,405 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="7"/>
+      <c r="B74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D74" s="7"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="9"/>
+      <c r="E74" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F74" s="5">
+        <v>11</v>
+      </c>
+      <c r="G74" s="5">
+        <v>3</v>
+      </c>
+      <c r="H74" s="1">
+        <v>11</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J74" s="1">
+        <v>2</v>
+      </c>
+      <c r="K74" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="9"/>
+      <c r="A75" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="1">
+        <f t="shared" ref="E75:E86" si="3">IF(F75&gt;G75,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F75" s="5">
+        <v>11</v>
+      </c>
+      <c r="G75" s="5">
+        <v>4</v>
+      </c>
+      <c r="H75" s="1">
+        <v>11</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J75" s="1">
+        <v>2</v>
+      </c>
+      <c r="K75" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="9"/>
+      <c r="A76" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F76" s="5">
+        <v>11</v>
+      </c>
+      <c r="G76" s="5">
+        <v>9</v>
+      </c>
+      <c r="H76" s="1">
+        <v>11</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J76" s="1">
+        <v>2</v>
+      </c>
+      <c r="K76" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="9"/>
+      <c r="A77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F77" s="5">
+        <v>11</v>
+      </c>
+      <c r="G77" s="5">
+        <v>8</v>
+      </c>
+      <c r="H77" s="1">
+        <v>11</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J77" s="1">
+        <v>2</v>
+      </c>
+      <c r="K77" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="9"/>
+      <c r="A78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F78" s="5">
+        <v>11</v>
+      </c>
+      <c r="G78" s="5">
+        <v>9</v>
+      </c>
+      <c r="H78" s="1">
+        <v>11</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J78" s="1">
+        <v>2</v>
+      </c>
+      <c r="K78" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="9"/>
+      <c r="A79" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F79" s="5">
+        <v>11</v>
+      </c>
+      <c r="G79" s="5">
+        <v>5</v>
+      </c>
+      <c r="H79" s="1">
+        <v>11</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J79" s="1">
+        <v>2</v>
+      </c>
+      <c r="K79" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="9"/>
+      <c r="A80" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F80" s="5">
+        <v>11</v>
+      </c>
+      <c r="G80" s="5">
+        <v>9</v>
+      </c>
+      <c r="H80" s="1">
+        <v>11</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J80" s="1">
+        <v>2</v>
+      </c>
+      <c r="K80" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="9"/>
+      <c r="A81" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F81" s="5">
+        <v>11</v>
+      </c>
+      <c r="G81" s="5">
+        <v>5</v>
+      </c>
+      <c r="H81" s="1">
+        <v>11</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J81" s="1">
+        <v>2</v>
+      </c>
+      <c r="K81" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="9"/>
+      <c r="A82" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F82" s="5">
+        <v>15</v>
+      </c>
+      <c r="G82" s="5">
+        <v>13</v>
+      </c>
+      <c r="H82" s="1">
+        <v>11</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J82" s="1">
+        <v>2</v>
+      </c>
+      <c r="K82" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="9"/>
+      <c r="A83" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F83" s="5">
+        <v>11</v>
+      </c>
+      <c r="G83" s="5">
+        <v>4</v>
+      </c>
+      <c r="H83" s="1">
+        <v>11</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J83" s="1">
+        <v>2</v>
+      </c>
+      <c r="K83" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
@@ -3115,16 +3924,36 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="7"/>
+      <c r="B84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D84" s="7"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="9"/>
+      <c r="E84" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F84" s="5">
+        <v>11</v>
+      </c>
+      <c r="G84" s="5">
+        <v>8</v>
+      </c>
+      <c r="H84" s="1">
+        <v>11</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J84" s="1">
+        <v>2</v>
+      </c>
+      <c r="K84" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
@@ -3132,16 +3961,36 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="7"/>
+      <c r="B85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D85" s="7"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="9"/>
+      <c r="E85" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F85" s="5">
+        <v>11</v>
+      </c>
+      <c r="G85" s="5">
+        <v>2</v>
+      </c>
+      <c r="H85" s="1">
+        <v>11</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J85" s="1">
+        <v>2</v>
+      </c>
+      <c r="K85" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
@@ -3149,16 +3998,36 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="7"/>
+      <c r="B86" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D86" s="7"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="9"/>
+      <c r="E86" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F86" s="5">
+        <v>11</v>
+      </c>
+      <c r="G86" s="5">
+        <v>8</v>
+      </c>
+      <c r="H86" s="1">
+        <v>11</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J86" s="1">
+        <v>2</v>
+      </c>
+      <c r="K86" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>

--- a/data/pickle.xlsx
+++ b/data/pickle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phbro\Desktop\DOCUMENTS\ActuRank\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8894BE30-1939-43D2-81E5-E32189CB278A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF259459-8C18-413D-8FDF-EF4324DA8D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="0" windowWidth="10932" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="69">
   <si>
     <t>players</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>6/10/2024</t>
+  </si>
+  <si>
+    <t>20/10/2024</t>
+  </si>
+  <si>
+    <t>22/10/2024</t>
   </si>
 </sst>
 </file>
@@ -630,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="I95" sqref="I95:I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3567,7 +3573,7 @@
         <v>21</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" ref="E75:E86" si="3">IF(F75&gt;G75,1,0)</f>
+        <f t="shared" ref="E75:E111" si="3">IF(F75&gt;G75,1,0)</f>
         <v>1</v>
       </c>
       <c r="F75" s="5">
@@ -4035,16 +4041,36 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="7"/>
+      <c r="B87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D87" s="7"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="9"/>
+      <c r="E87" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F87" s="5">
+        <v>11</v>
+      </c>
+      <c r="G87" s="5">
+        <v>8</v>
+      </c>
+      <c r="H87" s="1">
+        <v>11</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J87" s="1">
+        <v>2</v>
+      </c>
+      <c r="K87" s="9" t="str">
+        <f t="shared" ref="K87:K93" si="4">IF(OR(OR(AND(OR(A87=B87,A87=C87,A87=D87,B87=C87,B87=D87,C87=D87),OR(A87&lt;&gt;"",D87&lt;&gt;"")),H87&gt;MAX(F87:G87),B87=C87),OR(AND(ISBLANK(A87)=FALSE,ISNA(VLOOKUP(A87,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B87,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C87,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D87)=FALSE,ISNA(VLOOKUP(D87,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A87:D87)=1,COUNTBLANK(A87:D87)=3))),"ERREUR","")</f>
+        <v/>
+      </c>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
@@ -4052,16 +4078,36 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="7"/>
+      <c r="B88" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D88" s="7"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="9"/>
+      <c r="E88" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F88" s="5">
+        <v>11</v>
+      </c>
+      <c r="G88" s="5">
+        <v>5</v>
+      </c>
+      <c r="H88" s="1">
+        <v>11</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J88" s="1">
+        <v>2</v>
+      </c>
+      <c r="K88" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
@@ -4069,16 +4115,36 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="7"/>
+      <c r="B89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D89" s="7"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="9"/>
+      <c r="E89" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F89" s="5">
+        <v>11</v>
+      </c>
+      <c r="G89" s="5">
+        <v>4</v>
+      </c>
+      <c r="H89" s="1">
+        <v>11</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J89" s="1">
+        <v>2</v>
+      </c>
+      <c r="K89" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
@@ -4086,16 +4152,36 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="7"/>
+      <c r="B90" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D90" s="7"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="9"/>
+      <c r="E90" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F90" s="5">
+        <v>11</v>
+      </c>
+      <c r="G90" s="5">
+        <v>2</v>
+      </c>
+      <c r="H90" s="1">
+        <v>11</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J90" s="1">
+        <v>2</v>
+      </c>
+      <c r="K90" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
@@ -4103,16 +4189,36 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="7"/>
+      <c r="B91" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D91" s="7"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="9"/>
+      <c r="E91" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F91" s="5">
+        <v>14</v>
+      </c>
+      <c r="G91" s="5">
+        <v>12</v>
+      </c>
+      <c r="H91" s="1">
+        <v>11</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J91" s="1">
+        <v>2</v>
+      </c>
+      <c r="K91" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
@@ -4120,16 +4226,36 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="7"/>
+      <c r="B92" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D92" s="7"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="9"/>
+      <c r="E92" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F92" s="5">
+        <v>11</v>
+      </c>
+      <c r="G92" s="5">
+        <v>4</v>
+      </c>
+      <c r="H92" s="1">
+        <v>11</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J92" s="1">
+        <v>2</v>
+      </c>
+      <c r="K92" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
@@ -4137,16 +4263,36 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="7"/>
+      <c r="B93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D93" s="7"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="9"/>
+      <c r="E93" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F93" s="5">
+        <v>11</v>
+      </c>
+      <c r="G93" s="5">
+        <v>5</v>
+      </c>
+      <c r="H93" s="1">
+        <v>11</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J93" s="1">
+        <v>2</v>
+      </c>
+      <c r="K93" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
@@ -4154,16 +4300,36 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="7"/>
+      <c r="B94" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D94" s="7"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="9"/>
+      <c r="E94" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F94" s="5">
+        <v>5</v>
+      </c>
+      <c r="G94" s="5">
+        <v>2</v>
+      </c>
+      <c r="H94" s="1">
+        <v>5</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J94" s="1">
+        <v>2</v>
+      </c>
+      <c r="K94" s="9" t="str">
+        <f t="shared" ref="K94:K111" si="5">IF(OR(OR(AND(OR(A94=B94,A94=C94,A94=D94,B94=C94,B94=D94,C94=D94),OR(A94&lt;&gt;"",D94&lt;&gt;"")),H94&gt;MAX(F94:G94),B94=C94),OR(AND(ISBLANK(A94)=FALSE,ISNA(VLOOKUP(A94,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B94,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C94,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D94)=FALSE,ISNA(VLOOKUP(D94,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A94:D94)=1,COUNTBLANK(A94:D94)=3))),"ERREUR","")</f>
+        <v/>
+      </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
@@ -4171,16 +4337,36 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="7"/>
+      <c r="B95" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D95" s="7"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="9"/>
+      <c r="E95" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F95" s="5">
+        <v>5</v>
+      </c>
+      <c r="G95" s="5">
+        <v>2</v>
+      </c>
+      <c r="H95" s="1">
+        <v>5</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J95" s="1">
+        <v>2</v>
+      </c>
+      <c r="K95" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
@@ -4188,16 +4374,36 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="7"/>
+      <c r="B96" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D96" s="7"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="9"/>
+      <c r="E96" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F96" s="5">
+        <v>5</v>
+      </c>
+      <c r="G96" s="5">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>5</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J96" s="1">
+        <v>2</v>
+      </c>
+      <c r="K96" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
@@ -4205,16 +4411,36 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="7"/>
+      <c r="B97" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D97" s="7"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="9"/>
+      <c r="E97" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F97" s="5">
+        <v>5</v>
+      </c>
+      <c r="G97" s="5">
+        <v>3</v>
+      </c>
+      <c r="H97" s="1">
+        <v>5</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J97" s="1">
+        <v>2</v>
+      </c>
+      <c r="K97" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
@@ -4222,16 +4448,36 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="7"/>
+      <c r="B98" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D98" s="7"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="9"/>
+      <c r="E98" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F98" s="5">
+        <v>5</v>
+      </c>
+      <c r="G98" s="5">
+        <v>1</v>
+      </c>
+      <c r="H98" s="1">
+        <v>5</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J98" s="1">
+        <v>2</v>
+      </c>
+      <c r="K98" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
@@ -4239,16 +4485,36 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="7"/>
+      <c r="B99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D99" s="7"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="9"/>
+      <c r="E99" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F99" s="5">
+        <v>5</v>
+      </c>
+      <c r="G99" s="5">
+        <v>1</v>
+      </c>
+      <c r="H99" s="1">
+        <v>5</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J99" s="1">
+        <v>2</v>
+      </c>
+      <c r="K99" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
@@ -4256,16 +4522,36 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="7"/>
+      <c r="B100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D100" s="7"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="9"/>
+      <c r="E100" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F100" s="5">
+        <v>5</v>
+      </c>
+      <c r="G100" s="5">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>5</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J100" s="1">
+        <v>2</v>
+      </c>
+      <c r="K100" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
@@ -4273,16 +4559,36 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="7"/>
+      <c r="B101" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D101" s="7"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="9"/>
+      <c r="E101" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F101" s="5">
+        <v>5</v>
+      </c>
+      <c r="G101" s="5">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>5</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J101" s="1">
+        <v>2</v>
+      </c>
+      <c r="K101" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
@@ -4290,16 +4596,36 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="7"/>
+      <c r="B102" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D102" s="7"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="9"/>
+      <c r="E102" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F102" s="5">
+        <v>5</v>
+      </c>
+      <c r="G102" s="5">
+        <v>1</v>
+      </c>
+      <c r="H102" s="1">
+        <v>5</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J102" s="1">
+        <v>2</v>
+      </c>
+      <c r="K102" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
@@ -4307,16 +4633,36 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="7"/>
+      <c r="B103" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D103" s="7"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="9"/>
+      <c r="E103" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F103" s="5">
+        <v>6</v>
+      </c>
+      <c r="G103" s="5">
+        <v>4</v>
+      </c>
+      <c r="H103" s="1">
+        <v>5</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J103" s="1">
+        <v>2</v>
+      </c>
+      <c r="K103" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
@@ -4324,16 +4670,36 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="7"/>
+      <c r="B104" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D104" s="7"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="9"/>
+      <c r="E104" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F104" s="5">
+        <v>5</v>
+      </c>
+      <c r="G104" s="5">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>5</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J104" s="1">
+        <v>2</v>
+      </c>
+      <c r="K104" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
@@ -4341,16 +4707,36 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="7"/>
+      <c r="B105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D105" s="7"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="9"/>
+      <c r="E105" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F105" s="5">
+        <v>5</v>
+      </c>
+      <c r="G105" s="5">
+        <v>1</v>
+      </c>
+      <c r="H105" s="1">
+        <v>5</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J105" s="1">
+        <v>2</v>
+      </c>
+      <c r="K105" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
@@ -4358,16 +4744,36 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="7"/>
+      <c r="B106" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D106" s="7"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="9"/>
+      <c r="E106" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F106" s="5">
+        <v>5</v>
+      </c>
+      <c r="G106" s="5">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1">
+        <v>5</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J106" s="1">
+        <v>2</v>
+      </c>
+      <c r="K106" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
@@ -4375,16 +4781,36 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="7"/>
+      <c r="B107" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D107" s="7"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="9"/>
+      <c r="E107" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F107" s="5">
+        <v>5</v>
+      </c>
+      <c r="G107" s="5">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>5</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J107" s="1">
+        <v>2</v>
+      </c>
+      <c r="K107" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
@@ -4392,16 +4818,36 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="7"/>
+      <c r="B108" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D108" s="7"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="9"/>
+      <c r="E108" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F108" s="5">
+        <v>5</v>
+      </c>
+      <c r="G108" s="5">
+        <v>2</v>
+      </c>
+      <c r="H108" s="1">
+        <v>5</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J108" s="1">
+        <v>2</v>
+      </c>
+      <c r="K108" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
@@ -4409,16 +4855,36 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="7"/>
+      <c r="B109" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D109" s="7"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="9"/>
+      <c r="E109" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F109" s="5">
+        <v>11</v>
+      </c>
+      <c r="G109" s="5">
+        <v>9</v>
+      </c>
+      <c r="H109" s="1">
+        <v>11</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J109" s="1">
+        <v>2</v>
+      </c>
+      <c r="K109" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
@@ -4426,16 +4892,36 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="7"/>
+      <c r="B110" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D110" s="7"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="9"/>
+      <c r="E110" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F110" s="5">
+        <v>13</v>
+      </c>
+      <c r="G110" s="5">
+        <v>11</v>
+      </c>
+      <c r="H110" s="1">
+        <v>11</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J110" s="1">
+        <v>2</v>
+      </c>
+      <c r="K110" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
@@ -4443,16 +4929,36 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="7"/>
+      <c r="B111" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D111" s="7"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="9"/>
+      <c r="E111" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F111" s="5">
+        <v>11</v>
+      </c>
+      <c r="G111" s="5">
+        <v>6</v>
+      </c>
+      <c r="H111" s="1">
+        <v>11</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J111" s="1">
+        <v>2</v>
+      </c>
+      <c r="K111" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>

--- a/data/pickle.xlsx
+++ b/data/pickle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phbro\Desktop\DOCUMENTS\ActuRank\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF259459-8C18-413D-8FDF-EF4324DA8D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFE1A52-DF1F-4578-B370-44BC14EFE752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="70">
   <si>
     <t>players</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>22/10/2024</t>
+  </si>
+  <si>
+    <t>6/11/2024</t>
   </si>
 </sst>
 </file>
@@ -636,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="I95" sqref="I95:I111"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3573,7 +3576,7 @@
         <v>21</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" ref="E75:E111" si="3">IF(F75&gt;G75,1,0)</f>
+        <f t="shared" ref="E75:E115" si="3">IF(F75&gt;G75,1,0)</f>
         <v>1</v>
       </c>
       <c r="F75" s="5">
@@ -4327,7 +4330,7 @@
         <v>2</v>
       </c>
       <c r="K94" s="9" t="str">
-        <f t="shared" ref="K94:K111" si="5">IF(OR(OR(AND(OR(A94=B94,A94=C94,A94=D94,B94=C94,B94=D94,C94=D94),OR(A94&lt;&gt;"",D94&lt;&gt;"")),H94&gt;MAX(F94:G94),B94=C94),OR(AND(ISBLANK(A94)=FALSE,ISNA(VLOOKUP(A94,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B94,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C94,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D94)=FALSE,ISNA(VLOOKUP(D94,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A94:D94)=1,COUNTBLANK(A94:D94)=3))),"ERREUR","")</f>
+        <f t="shared" ref="K94:K115" si="5">IF(OR(OR(AND(OR(A94=B94,A94=C94,A94=D94,B94=C94,B94=D94,C94=D94),OR(A94&lt;&gt;"",D94&lt;&gt;"")),H94&gt;MAX(F94:G94),B94=C94),OR(AND(ISBLANK(A94)=FALSE,ISNA(VLOOKUP(A94,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B94,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C94,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D94)=FALSE,ISNA(VLOOKUP(D94,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A94:D94)=1,COUNTBLANK(A94:D94)=3))),"ERREUR","")</f>
         <v/>
       </c>
       <c r="L94" s="1"/>
@@ -4966,16 +4969,36 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="7"/>
+      <c r="B112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D112" s="7"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="9"/>
+      <c r="E112" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F112" s="5">
+        <v>12</v>
+      </c>
+      <c r="G112" s="5">
+        <v>10</v>
+      </c>
+      <c r="H112" s="1">
+        <v>11</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J112" s="1">
+        <v>2</v>
+      </c>
+      <c r="K112" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
@@ -4983,16 +5006,36 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="7"/>
+      <c r="B113" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D113" s="7"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="9"/>
+      <c r="E113" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F113" s="5">
+        <v>11</v>
+      </c>
+      <c r="G113" s="5">
+        <v>8</v>
+      </c>
+      <c r="H113" s="1">
+        <v>11</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J113" s="1">
+        <v>2</v>
+      </c>
+      <c r="K113" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
@@ -5000,16 +5043,36 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="7"/>
+      <c r="B114" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D114" s="7"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="9"/>
+      <c r="E114" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F114" s="5">
+        <v>11</v>
+      </c>
+      <c r="G114" s="5">
+        <v>7</v>
+      </c>
+      <c r="H114" s="1">
+        <v>11</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J114" s="1">
+        <v>2</v>
+      </c>
+      <c r="K114" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
@@ -5017,16 +5080,36 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="7"/>
+      <c r="B115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D115" s="7"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="9"/>
+      <c r="E115" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F115" s="5">
+        <v>11</v>
+      </c>
+      <c r="G115" s="5">
+        <v>6</v>
+      </c>
+      <c r="H115" s="1">
+        <v>11</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J115" s="1">
+        <v>2</v>
+      </c>
+      <c r="K115" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
